--- a/Output/March/productivity_agent/productivity_agent_2022-03-07.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-07.xlsx
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2147</v>
+        <v>2166</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="AZ58">
-        <v>375.5685131195335</v>
+        <v>378.8921282798834</v>
       </c>
       <c r="BA58">
         <v>0</v>
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="CL58">
-        <v>0.4418453095523924</v>
+        <v>0.4457554450351569</v>
       </c>
       <c r="CM58">
         <v>0</v>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="DA58">
-        <v>0.457357762777242</v>
+        <v>0.4610221793635487</v>
       </c>
     </row>
     <row r="59" spans="1:105">
@@ -22234,7 +22234,7 @@
         <v>87</v>
       </c>
       <c r="N67">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="O67">
         <v>87</v>
@@ -22348,7 +22348,7 @@
         <v>0</v>
       </c>
       <c r="AZ67">
-        <v>403.9024390243902</v>
+        <v>500.4878048780488</v>
       </c>
       <c r="BA67">
         <v>0</v>
@@ -22462,7 +22462,7 @@
         <v>0</v>
       </c>
       <c r="CL67">
-        <v>0.4751793400286944</v>
+        <v>0.5888091822094692</v>
       </c>
       <c r="CM67">
         <v>0</v>
@@ -22507,7 +22507,7 @@
         <v>0</v>
       </c>
       <c r="DA67">
-        <v>0.4751793400286944</v>
+        <v>0.5888091822094692</v>
       </c>
     </row>
     <row r="68" spans="1:105">
